--- a/Documents/test1.xlsx
+++ b/Documents/test1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="65">
   <si>
     <t>Students sign in/out to the web with correct user name and password.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,10 +186,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Test Case 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Lecturers send questions to students.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -238,11 +234,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Test Case 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Students answer the questions and get a feedback from lecturer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test personnel:
+Date:
+Signature:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Receive the questions that lecturer sent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The questions are shown on the page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Answer the question (Tick the answer)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>After finishing the questions 
+then will be able to submit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Receive the  feedback from the lecturer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Students can see marks and feedback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Case 3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Case 3.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Case 4.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Students can see their timetables.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>View detailed timetable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timetable contains details including venue, 
+time, the name of lecturer and so on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If there's any change on timetable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is updated immidiately</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Case 4.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lecturers can see their timetables.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Admins manage timetables</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Change the details</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -327,7 +399,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -376,16 +448,114 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -395,41 +565,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -732,10 +887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127:D128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -746,785 +901,1202 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+    </row>
+    <row r="3" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+    <row r="5" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8" t="s">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="13" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="18"/>
+    </row>
+    <row r="13" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+    </row>
+    <row r="15" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+    </row>
+    <row r="17" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D18" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
+    <row r="19" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
         <v>1</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B19" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8" t="s">
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11">
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
         <v>2</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
+      <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-    </row>
-    <row r="23" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="18"/>
+    </row>
+    <row r="27" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="19"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="21"/>
+    </row>
+    <row r="28" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+    </row>
+    <row r="30" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+    </row>
+    <row r="31" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4" t="s">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D32" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6">
+    <row r="33" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7">
         <v>1</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B33" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="8"/>
-    </row>
-    <row r="30" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8" t="s">
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="8"/>
-    </row>
-    <row r="31" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="11">
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
         <v>2</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B35" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-    </row>
-    <row r="33" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-    </row>
-    <row r="34" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+    </row>
+    <row r="37" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+    </row>
+    <row r="38" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-    </row>
-    <row r="35" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-    </row>
-    <row r="36" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+    </row>
+    <row r="40" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="18"/>
+    </row>
+    <row r="41" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="19"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="21"/>
+    </row>
+    <row r="42" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A43" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+    </row>
+    <row r="44" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+    </row>
+    <row r="45" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4" t="s">
+      <c r="B45" s="6"/>
+      <c r="C45" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
+      <c r="D45" s="6"/>
+    </row>
+    <row r="46" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B46" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C46" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D46" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="6">
+    <row r="47" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="7">
         <v>1</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B47" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C47" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="8"/>
-    </row>
-    <row r="42" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="6"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="8" t="s">
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="7"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D42" s="8"/>
-    </row>
-    <row r="43" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="6">
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="7">
         <v>2</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B49" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C49" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D43" s="8"/>
-    </row>
-    <row r="44" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="6"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="8" t="s">
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="7"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D44" s="8"/>
-    </row>
-    <row r="45" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="6">
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="7">
         <v>3</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B51" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C51" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D45" s="8"/>
-    </row>
-    <row r="46" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="6"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46" s="8"/>
-    </row>
-    <row r="47" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="6">
-        <v>4</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D47" s="8"/>
-    </row>
-    <row r="48" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="6"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D48" s="8"/>
-    </row>
-    <row r="49" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="6">
-        <v>5</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D49" s="8"/>
-    </row>
-    <row r="50" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="6"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D50" s="8"/>
-    </row>
-    <row r="51" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
+      <c r="D51" s="2"/>
     </row>
     <row r="52" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
+      <c r="A53" s="7">
+        <v>4</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" s="2"/>
     </row>
     <row r="54" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-    </row>
-    <row r="55" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+      <c r="B54" s="9"/>
+      <c r="C54" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="7">
+        <v>5</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="7"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+    </row>
+    <row r="58" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+    </row>
+    <row r="59" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+    </row>
+    <row r="60" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+    </row>
+    <row r="61" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="18"/>
+    </row>
+    <row r="62" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="19"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="21"/>
+    </row>
+    <row r="63" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A64" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+    </row>
+    <row r="65" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+    </row>
+    <row r="66" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="6"/>
+    </row>
+    <row r="67" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="3">
+        <v>1</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
+      <c r="C68" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="3">
+        <v>2</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="3">
+        <v>3</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="7">
+        <v>4</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="7"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="3">
         <v>5</v>
       </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4" t="s">
+      <c r="B73" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D73" s="2"/>
+    </row>
+    <row r="74" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+    </row>
+    <row r="75" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="11"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+    </row>
+    <row r="76" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+    </row>
+    <row r="77" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="11"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+    </row>
+    <row r="78" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="18"/>
+    </row>
+    <row r="79" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="19"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="21"/>
+    </row>
+    <row r="80" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A81" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B81" s="13"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+    </row>
+    <row r="82" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+    </row>
+    <row r="83" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D58" s="4"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" t="s">
+      <c r="D83" s="6"/>
+    </row>
+    <row r="84" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B84" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C84" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D84" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="11">
+    <row r="85" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="3">
         <v>1</v>
       </c>
-      <c r="B60" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D60" s="8"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="11">
+      <c r="B85" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D85" s="2"/>
+    </row>
+    <row r="86" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="3">
         <v>2</v>
       </c>
-      <c r="B61" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D61" s="8"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="11">
+      <c r="B86" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C86" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D86" s="2"/>
+    </row>
+    <row r="87" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="3">
         <v>3</v>
       </c>
-      <c r="B62" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D62" s="8"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="6">
+      <c r="B87" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D87" s="2"/>
+    </row>
+    <row r="88" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+    </row>
+    <row r="89" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="11"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+    </row>
+    <row r="90" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+    </row>
+    <row r="91" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="11"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+    </row>
+    <row r="92" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="18"/>
+    </row>
+    <row r="93" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="19"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="21"/>
+    </row>
+    <row r="95" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A95" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B95" s="13"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+    </row>
+    <row r="96" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B96" s="15"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="15"/>
+    </row>
+    <row r="97" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" s="6"/>
+    </row>
+    <row r="98" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B63" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D63" s="8"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="6"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D64" s="8"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="11">
+    </row>
+    <row r="99" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="3">
+        <v>1</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C99" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D99" s="2"/>
+    </row>
+    <row r="100" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="3">
+        <v>2</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C100" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D100" s="2"/>
+    </row>
+    <row r="101" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+    </row>
+    <row r="102" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="11"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+    </row>
+    <row r="103" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B103" s="11"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+    </row>
+    <row r="104" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="11"/>
+      <c r="B104" s="11"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+    </row>
+    <row r="105" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B105" s="16"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="18"/>
+    </row>
+    <row r="106" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="19"/>
+      <c r="B106" s="20"/>
+      <c r="C106" s="20"/>
+      <c r="D106" s="21"/>
+    </row>
+    <row r="108" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A108" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B108" s="13"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13"/>
+    </row>
+    <row r="109" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B109" s="15"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="15"/>
+    </row>
+    <row r="110" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B65" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D65" s="8"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="9" t="s">
+      <c r="B110" s="6"/>
+      <c r="C110" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" s="6"/>
+    </row>
+    <row r="111" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="3">
+        <v>1</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C112" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D112" s="2"/>
+    </row>
+    <row r="113" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="3">
+        <v>2</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C113" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D113" s="2"/>
+    </row>
+    <row r="114" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="10" t="s">
+      <c r="B114" s="11"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+    </row>
+    <row r="115" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="11"/>
+      <c r="B115" s="11"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+    </row>
+    <row r="116" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-    </row>
-    <row r="70" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
+      <c r="B116" s="11"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+    </row>
+    <row r="117" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="11"/>
+      <c r="B117" s="11"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+    </row>
+    <row r="118" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-    </row>
-    <row r="72" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
+      <c r="B118" s="16"/>
+      <c r="C118" s="16"/>
+      <c r="D118" s="18"/>
+    </row>
+    <row r="119" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="19"/>
+      <c r="B119" s="20"/>
+      <c r="C119" s="20"/>
+      <c r="D119" s="21"/>
+    </row>
+    <row r="121" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A121" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B121" s="13"/>
+      <c r="C121" s="13"/>
+      <c r="D121" s="13"/>
+    </row>
+    <row r="122" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B122" s="15"/>
+      <c r="C122" s="15"/>
+      <c r="D122" s="15"/>
+    </row>
+    <row r="123" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4" t="s">
+      <c r="B123" s="6"/>
+      <c r="C123" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D73" s="4"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="5" t="s">
+      <c r="D123" s="6"/>
+    </row>
+    <row r="124" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B124" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C124" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D124" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="11">
+    <row r="125" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A125" s="3">
         <v>1</v>
       </c>
-      <c r="B75" s="12"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="11">
+      <c r="B125" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C125" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D125" s="2"/>
+    </row>
+    <row r="126" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="3">
         <v>2</v>
       </c>
-      <c r="B76" s="12"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="11">
-        <v>3</v>
-      </c>
-      <c r="B77" s="12"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="6">
-        <v>4</v>
-      </c>
-      <c r="B78" s="13"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="6"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="11">
-        <v>5</v>
-      </c>
-      <c r="B80" s="15"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="9" t="s">
+      <c r="B126" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C126" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D126" s="2"/>
+    </row>
+    <row r="127" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="10" t="s">
+      <c r="B127" s="11"/>
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
+    </row>
+    <row r="128" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="11"/>
+      <c r="B128" s="11"/>
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
+    </row>
+    <row r="129" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="7"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
+      <c r="B129" s="11"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+    </row>
+    <row r="130" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="11"/>
+      <c r="B130" s="11"/>
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+    </row>
+    <row r="131" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B131" s="16"/>
+      <c r="C131" s="16"/>
+      <c r="D131" s="18"/>
+    </row>
+    <row r="132" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="19"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="20"/>
+      <c r="D132" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="A81:D82"/>
-    <mergeCell ref="A83:D84"/>
-    <mergeCell ref="A66:D67"/>
-    <mergeCell ref="A68:D69"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="A51:D52"/>
-    <mergeCell ref="A53:D54"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A32:D33"/>
-    <mergeCell ref="A34:D35"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A20:D21"/>
-    <mergeCell ref="A22:D23"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="A10:D11"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
+  <mergeCells count="81">
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="A127:D128"/>
+    <mergeCell ref="A129:D130"/>
+    <mergeCell ref="A131:D132"/>
+    <mergeCell ref="A114:D115"/>
+    <mergeCell ref="A116:D117"/>
+    <mergeCell ref="A118:D119"/>
+    <mergeCell ref="A121:D121"/>
+    <mergeCell ref="A122:D122"/>
+    <mergeCell ref="A105:D106"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="A101:D102"/>
+    <mergeCell ref="A103:D104"/>
+    <mergeCell ref="A40:D41"/>
+    <mergeCell ref="A61:D62"/>
+    <mergeCell ref="A78:D79"/>
+    <mergeCell ref="A92:D93"/>
+    <mergeCell ref="A95:D95"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="A10:D11"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A12:D13"/>
+    <mergeCell ref="A38:D39"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A22:D23"/>
+    <mergeCell ref="A24:D25"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A26:D27"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A36:D37"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A57:D58"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="A90:D91"/>
+    <mergeCell ref="A74:D75"/>
+    <mergeCell ref="A76:D77"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="A88:D89"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
